--- a/biology/Zoologie/Chelodina/Chelodina.xlsx
+++ b/biology/Zoologie/Chelodina/Chelodina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelodina est un genre de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelodina est un genre de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 17 espèces de ce genre se rencontrent en Australie, en Nouvelle-Guinée et dans les Petites îles de la Sonde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 17 espèces de ce genre se rencontrent en Australie, en Nouvelle-Guinée et dans les Petites îles de la Sonde.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 juillet 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 juillet 2022) :
 Chelodina burrungandjii Thomson et al., 2000
 Chelodina canni McCord &amp; Thomson, 2002
 Chelodina expansa J.E. Gray, 1857
 Chelodina gunaleni McCord &amp; Joseph-Ouni, 2007
-Chelodina ipudinapi Joseph-Ouni &amp; McCord, 2022[3]
+Chelodina ipudinapi Joseph-Ouni &amp; McCord, 2022
 Chelodina kuchlingi Cann, 1997
-Chelodina kurrichalpongo (Joseph-Ouni et al., 2019)[4]
+Chelodina kurrichalpongo (Joseph-Ouni et al., 2019)
 Chelodina longicollis (Shaw, 1794) — Tortue à long cou
 Chelodina mccordi Rhodin, 1994
 Chelodina novaeguineae Boulenger, 1888
@@ -589,7 +605,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bell, 1828 : On Hydraspis, a new genus of freshwater tortoises, of the family Emydidae. Zoological Journal, vol. 3, p. 511–513 (texte intégral)
 Fitzinger, 1826 : Neue Classification der Reptilien nach ihren natürlichen Verwandtschaften nebst einer Verwandschafts-Tafel und einem Verzeichnisse der Reptilien-Sammlung des K. K. Zoologischen Museums zu Wien, J. G. Heubner, Wien, p. 1-66 (texte intégral).
